--- a/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>2,67; 10,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>4,64; 13,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>4,43; 10,49</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>4,0; 10,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>7,29; 14,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,71; 11,19</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>8,19; 13,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>10,3; 15,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>10,07; 13,82</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,57; 14,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>17,73; 23,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>13,75; 18,04</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,19%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,5; 19,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>25,25; 31,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>20,2; 24,42</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,35%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>19,77; 24,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>20,52; 33,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>20,11; 28,74</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,97%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,01; 14,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>18,19; 21,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>15,85; 17,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 10,91</t>
+          <t>0; 1,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 13,53</t>
+          <t>0; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,49</t>
+          <t>0; 0,51</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,58</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,02</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,19</t>
+          <t>0; 0,25</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,77</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,55</t>
+          <t>0; 0,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,07; 13,82</t>
+          <t>0; 0,14</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,26</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,73; 23,7</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 18,04</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,39</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,25; 31,11</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,2; 24,42</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,77; 24,99</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,52; 33,54</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,11; 28,74</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,01; 14,66</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,19; 21,78</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,85; 17,94</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,22</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,04</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0; 0,02</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas para dormir a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2889</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3603</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2683</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2128</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2352</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1339</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1553</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2560</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1199</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1701</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1623</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1049</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1279</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1238</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1411</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1341</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1183</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 927</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1328</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1575</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Edad-trans_dic.xlsx
@@ -557,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>2,49; 10,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>4,98; 14,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>4,37; 10,21</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>3,75; 10,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,48; 12,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,7; 10,37</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,49%</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>8,05; 13,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>9,31; 14,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>9,51; 13,65</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,65; 13,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>16,19; 22,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>7,97; 16,61</t>
         </is>
       </c>
     </row>
@@ -757,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,66%</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,29; 18,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>24,88; 30,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>19,66; 23,79</t>
         </is>
       </c>
     </row>
@@ -807,17 +807,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -830,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>14,95; 21,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>7,41; 28,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>9,79; 23,91</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,94%</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>22,65; 30,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>32,33; 39,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>29,24; 34,4</t>
         </is>
       </c>
     </row>
@@ -907,17 +907,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -930,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,64; 13,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,21; 20,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,47; 16,81</t>
         </is>
       </c>
     </row>
@@ -1053,17 +1053,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22376</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26262</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48638</t>
         </is>
       </c>
     </row>
@@ -1099,17 +1099,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 4435</t>
+          <t>9948; 41742</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 2889</t>
+          <t>15603; 46112</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 3603</t>
+          <t>31170; 72821</t>
         </is>
       </c>
     </row>
@@ -1126,17 +1126,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28203</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46505</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74707</t>
         </is>
       </c>
     </row>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2683</t>
+          <t>15884; 42988</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2128</t>
+          <t>28065; 64508</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2352</t>
+          <t>53285; 97037</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -1222,17 +1222,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56237</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73374</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>129611</t>
         </is>
       </c>
     </row>
@@ -1245,17 +1245,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0; 1883</t>
+          <t>43175; 72651</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0; 1339</t>
+          <t>55094; 88344</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0; 1553</t>
+          <t>107309; 154061</t>
         </is>
       </c>
     </row>
@@ -1272,17 +1272,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77921</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>137468</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>215389</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2560</t>
+          <t>32416; 115657</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1199</t>
+          <t>115394; 158780</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1701</t>
+          <t>127498; 265841</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>261</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>368</t>
         </is>
       </c>
     </row>
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89600</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150677</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240277</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0; 1623</t>
+          <t>74562; 106567</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0; 1049</t>
+          <t>136341; 166012</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0; 1279</t>
+          <t>218005; 263894</t>
         </is>
       </c>
     </row>
@@ -1418,17 +1418,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>328</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66078</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111957</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>178035</t>
         </is>
       </c>
     </row>
@@ -1464,17 +1464,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1238</t>
+          <t>55035; 77534</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 1411</t>
+          <t>45089; 173798</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1341</t>
+          <t>95639; 233468</t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>302</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>428</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1514,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75299</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>151052</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>226351</t>
         </is>
       </c>
     </row>
@@ -1537,17 +1537,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0; 1183</t>
+          <t>64035; 87454</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0; 927</t>
+          <t>137670; 166090</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0; 1016</t>
+          <t>207176; 243733</t>
         </is>
       </c>
     </row>
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1672</t>
         </is>
       </c>
     </row>
@@ -1587,17 +1587,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>415715</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>697294</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1113009</t>
         </is>
       </c>
     </row>
@@ -1610,17 +1610,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0; 1968</t>
+          <t>333670; 466160</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0; 1328</t>
+          <t>564511; 760768</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0; 1575</t>
+          <t>966335; 1205571</t>
         </is>
       </c>
     </row>
